--- a/model/results/mix5_ggpos_h2pos/v_sce.xlsx
+++ b/model/results/mix5_ggpos_h2pos/v_sce.xlsx
@@ -793,7 +793,7 @@
         <v>1.5215</v>
       </c>
       <c r="F3" t="n">
-        <v>1.583461538461538</v>
+        <v>1.5215</v>
       </c>
       <c r="G3" t="n">
         <v>0.16</v>
@@ -924,7 +924,7 @@
         <v>1.5215</v>
       </c>
       <c r="F4" t="n">
-        <v>1.583461538461538</v>
+        <v>1.5215</v>
       </c>
       <c r="G4" t="n">
         <v>0.16</v>
@@ -1055,7 +1055,7 @@
         <v>1.5215</v>
       </c>
       <c r="F5" t="n">
-        <v>1.583461538461538</v>
+        <v>1.5215</v>
       </c>
       <c r="G5" t="n">
         <v>0.16</v>
@@ -1094,7 +1094,7 @@
         <v>0.41</v>
       </c>
       <c r="S5" t="n">
-        <v>0.41</v>
+        <v>0.4100000000000075</v>
       </c>
       <c r="T5" t="n">
         <v>0.41</v>
@@ -1177,16 +1177,16 @@
         <v>1.583461538461538</v>
       </c>
       <c r="C6" t="n">
-        <v>1.583461538461538</v>
+        <v>1.328079656156995</v>
       </c>
       <c r="D6" t="n">
-        <v>1.244847703195959</v>
+        <v>0.8674615384615382</v>
       </c>
       <c r="E6" t="n">
-        <v>1.1635</v>
+        <v>1.5215</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8674615384615384</v>
+        <v>1.059305970149254</v>
       </c>
       <c r="G6" t="n">
         <v>0.16</v>
@@ -1198,7 +1198,7 @@
         <v>0.16</v>
       </c>
       <c r="J6" t="n">
-        <v>0.205</v>
+        <v>0.2049999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.205</v>
@@ -1216,10 +1216,10 @@
         <v>0.205</v>
       </c>
       <c r="P6" t="n">
-        <v>0.205</v>
+        <v>0.2049999999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.205</v>
+        <v>0.2049999999999999</v>
       </c>
       <c r="R6" t="n">
         <v>0.205</v>
@@ -1234,7 +1234,7 @@
         <v>0.205</v>
       </c>
       <c r="V6" t="n">
-        <v>0.205</v>
+        <v>0.2049999999999999</v>
       </c>
       <c r="W6" t="n">
         <v>0.205</v>
@@ -1243,7 +1243,7 @@
         <v>0.205</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.205</v>
+        <v>0.2049999999999999</v>
       </c>
       <c r="Z6" t="n">
         <v>0.205</v>
@@ -1261,10 +1261,10 @@
         <v>0.205</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.205</v>
+        <v>0.2049999999999999</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.205</v>
+        <v>0.2049999999999999</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>1.583461538461538</v>
       </c>
       <c r="C7" t="n">
-        <v>1.583461538461538</v>
+        <v>1.328079656156995</v>
       </c>
       <c r="D7" t="n">
-        <v>1.244847703195959</v>
+        <v>0.1514615384615378</v>
       </c>
       <c r="E7" t="n">
-        <v>1.1635</v>
+        <v>1.5215</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1514615384615381</v>
+        <v>1.059305970149254</v>
       </c>
       <c r="G7" t="n">
         <v>0.16</v>
@@ -1329,7 +1329,7 @@
         <v>0.16</v>
       </c>
       <c r="J7" t="n">
-        <v>0.19475</v>
+        <v>0.1947499999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.19475</v>
@@ -1341,19 +1341,19 @@
         <v>0.19475</v>
       </c>
       <c r="N7" t="n">
-        <v>0.19475</v>
+        <v>0.1947499999999999</v>
       </c>
       <c r="O7" t="n">
         <v>0.19475</v>
       </c>
       <c r="P7" t="n">
-        <v>0.19475</v>
+        <v>0.1947499999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.19475</v>
+        <v>0.1947499999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>0.19475</v>
+        <v>0.1947499999999999</v>
       </c>
       <c r="S7" t="n">
         <v>0.19475</v>
@@ -1365,16 +1365,16 @@
         <v>0.19475</v>
       </c>
       <c r="V7" t="n">
-        <v>0.19475</v>
+        <v>0.1947499999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>0.19475</v>
+        <v>0.1947499999999999</v>
       </c>
       <c r="X7" t="n">
         <v>0.19475</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.19475</v>
+        <v>0.1947499999999999</v>
       </c>
       <c r="Z7" t="n">
         <v>0.19475</v>
@@ -1386,16 +1386,16 @@
         <v>0.19475</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.19475</v>
+        <v>0.1947499999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.19475</v>
+        <v>0.1947499999999999</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.19475</v>
+        <v>0.1947499999999999</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.19475</v>
+        <v>0.1947499999999999</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1436,19 +1436,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>1.201310761088612</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8674615384615383</v>
+        <v>1.328079656156995</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615376</v>
       </c>
       <c r="E8" t="n">
-        <v>1.1635</v>
+        <v>1.5215</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1514615384615382</v>
+        <v>1.059305970149254</v>
       </c>
       <c r="G8" t="n">
         <v>0.16</v>
@@ -1567,19 +1567,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1514615384615382</v>
+        <v>0.8674615384615382</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8674615384615383</v>
+        <v>0.1514615384615376</v>
       </c>
       <c r="D9" t="n">
         <v>0.1514615384615381</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4474999999999998</v>
+        <v>0.8054999999999997</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1514615384615382</v>
+        <v>1.059305970149254</v>
       </c>
       <c r="G9" t="n">
         <v>0.16</v>
@@ -1642,10 +1642,10 @@
         <v>0.03075000000000006</v>
       </c>
       <c r="AA9" t="n">
+        <v>0.03075000000000008</v>
+      </c>
+      <c r="AB9" t="n">
         <v>0.03075000000000006</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.03074999999999964</v>
       </c>
       <c r="AC9" t="n">
         <v>0.03075000000000006</v>
@@ -1698,19 +1698,19 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1514615384615382</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1514615384615382</v>
+        <v>0.1514615384615378</v>
       </c>
       <c r="D10" t="n">
         <v>0.1514615384615381</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4474999999999999</v>
+        <v>0.8054999999999997</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1514615384615382</v>
+        <v>1.059305970149254</v>
       </c>
       <c r="G10" t="n">
         <v>0.16</v>
@@ -1773,10 +1773,10 @@
         <v>0.02049999999999999</v>
       </c>
       <c r="AA10" t="n">
+        <v>0.02050000000000002</v>
+      </c>
+      <c r="AB10" t="n">
         <v>0.02049999999999999</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.02049999999999957</v>
       </c>
       <c r="AC10" t="n">
         <v>0.02049999999999999</v>
@@ -1832,16 +1832,16 @@
         <v>0.1514615384615381</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615378</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4474999999999999</v>
+        <v>0.1514615384615376</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1514615384615381</v>
+        <v>1.059305970149254</v>
       </c>
       <c r="G11" t="n">
         <v>0.16</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1963,16 +1963,16 @@
         <v>0.1514615384615381</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615378</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4474999999999999</v>
+        <v>0.1514615384615378</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1514615384615381</v>
+        <v>1.059305970149254</v>
       </c>
       <c r="G12" t="n">
         <v>0.16</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -2091,19 +2091,19 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615378</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4474999999999857</v>
+        <v>0.1514615384615378</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1514615384615381</v>
+        <v>1.059305970149254</v>
       </c>
       <c r="G13" t="n">
         <v>0.16</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2225,16 +2225,16 @@
         <v>0.1514615384615381</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1514615384615295</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="D14" t="n">
         <v>0.1514615384615381</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4474999999999967</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1514615384615381</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0.16</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -2353,19 +2353,19 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1514615384615294</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4474999999999998</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1514615384615332</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0.16</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.151461538461527</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.151461538461527</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615356</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1514615384615332</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0.16</v>
@@ -2615,19 +2615,19 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615271</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615373</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.151461538461527</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1514615384615332</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0.16</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615356</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615356</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1514615384615332</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0.16</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -2877,19 +2877,19 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.151461538461527</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.151461538461527</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615356</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1514615384615332</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0.16</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -3008,19 +3008,19 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615355</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615354</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615356</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1514615384615332</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0.16</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -3139,19 +3139,19 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
+        <v>0.151461538461527</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.151461538461527</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.151461538461527</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.1514615384615381</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.1514615384615332</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.1514615384615332</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
-        <v>0.1514615384615332</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0.16</v>
@@ -3214,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.775557561562891e-17</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
